--- a/src/test/resources/read/员工模板表.xlsx
+++ b/src/test/resources/read/员工模板表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>--员工数据--</t>
   </si>
@@ -37,10 +37,16 @@
     <t>张三</t>
   </si>
   <si>
+    <t>10000 元</t>
+  </si>
+  <si>
     <t>男</t>
   </si>
   <si>
     <t>李红</t>
+  </si>
+  <si>
+    <t>12000 元</t>
   </si>
   <si>
     <t>女</t>
@@ -1003,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="27.0384615384615" customWidth="1"/>
@@ -1044,11 +1050,11 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>10000</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>34451</v>
@@ -1059,15 +1065,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>12000</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
